--- a/Гербарии/Actaeae DNA  samples by AE (11.04.2024).xlsx
+++ b/Гербарии/Actaeae DNA  samples by AE (11.04.2024).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Eranthis\Гербарии\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46470FE-18E9-4801-83C3-47E73889A55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3A5716-EBD8-4B4D-BF97-4CAD1BDD851D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1331,7 +1331,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1341,6 +1341,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1358,7 +1364,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1396,9 +1402,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1482,23 +1485,52 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1818,8 +1850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CH234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="F16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1831,12 +1863,10 @@
     <col min="6" max="6" width="10.85546875" style="3" customWidth="1"/>
     <col min="7" max="7" width="50.7109375" style="6" customWidth="1"/>
     <col min="8" max="8" width="52.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24" style="45" customWidth="1"/>
-    <col min="10" max="10" width="24" style="52" customWidth="1"/>
-    <col min="11" max="11" width="24" style="45" customWidth="1"/>
+    <col min="9" max="11" width="24" style="44" customWidth="1"/>
     <col min="12" max="12" width="16.28515625" style="10" customWidth="1"/>
     <col min="13" max="13" width="12" style="3" customWidth="1"/>
-    <col min="14" max="14" width="13" style="45" customWidth="1"/>
+    <col min="14" max="14" width="13" style="44" customWidth="1"/>
     <col min="15" max="15" width="93" style="6" customWidth="1"/>
     <col min="16" max="16" width="28.5703125" style="3" customWidth="1"/>
     <col min="17" max="17" width="39.7109375" style="10" customWidth="1"/>
@@ -1849,19 +1879,19 @@
       <c r="A1" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>149</v>
       </c>
       <c r="G1" s="15" t="s">
@@ -1870,13 +1900,13 @@
       <c r="H1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="20" t="s">
         <v>247</v>
       </c>
       <c r="L1" s="15" t="s">
@@ -1885,10 +1915,10 @@
       <c r="M1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="41" t="s">
+      <c r="O1" s="40" t="s">
         <v>3</v>
       </c>
       <c r="P1" s="15" t="s">
@@ -1900,70 +1930,70 @@
       <c r="T1" s="10"/>
       <c r="U1" s="10"/>
       <c r="V1" s="10"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="38"/>
-      <c r="AO1" s="38"/>
-      <c r="AP1" s="38"/>
-      <c r="AQ1" s="38"/>
-      <c r="AR1" s="38"/>
-      <c r="AS1" s="38"/>
-      <c r="AT1" s="38"/>
-      <c r="AU1" s="38"/>
-      <c r="AV1" s="38"/>
-      <c r="AW1" s="38"/>
-      <c r="AX1" s="38"/>
-      <c r="AY1" s="38"/>
-      <c r="AZ1" s="38"/>
-      <c r="BA1" s="38"/>
-      <c r="BB1" s="38"/>
-      <c r="BC1" s="38"/>
-      <c r="BD1" s="38"/>
-      <c r="BE1" s="38"/>
-      <c r="BF1" s="38"/>
-      <c r="BG1" s="38"/>
-      <c r="BH1" s="38"/>
-      <c r="BI1" s="38"/>
-      <c r="BJ1" s="38"/>
-      <c r="BK1" s="38"/>
-      <c r="BL1" s="38"/>
-      <c r="BM1" s="38"/>
-      <c r="BN1" s="38"/>
-      <c r="BO1" s="38"/>
-      <c r="BP1" s="38"/>
-      <c r="BQ1" s="38"/>
-      <c r="BR1" s="38"/>
-      <c r="BS1" s="38"/>
-      <c r="BT1" s="38"/>
-      <c r="BU1" s="38"/>
-      <c r="BV1" s="38"/>
-      <c r="BW1" s="38"/>
-      <c r="BX1" s="38"/>
-      <c r="BY1" s="38"/>
-      <c r="BZ1" s="38"/>
-      <c r="CA1" s="38"/>
-      <c r="CB1" s="38"/>
-      <c r="CC1" s="38"/>
-      <c r="CD1" s="38"/>
-      <c r="CE1" s="38"/>
-      <c r="CF1" s="38"/>
-      <c r="CG1" s="38"/>
-      <c r="CH1" s="38"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="37"/>
+      <c r="BA1" s="37"/>
+      <c r="BB1" s="37"/>
+      <c r="BC1" s="37"/>
+      <c r="BD1" s="37"/>
+      <c r="BE1" s="37"/>
+      <c r="BF1" s="37"/>
+      <c r="BG1" s="37"/>
+      <c r="BH1" s="37"/>
+      <c r="BI1" s="37"/>
+      <c r="BJ1" s="37"/>
+      <c r="BK1" s="37"/>
+      <c r="BL1" s="37"/>
+      <c r="BM1" s="37"/>
+      <c r="BN1" s="37"/>
+      <c r="BO1" s="37"/>
+      <c r="BP1" s="37"/>
+      <c r="BQ1" s="37"/>
+      <c r="BR1" s="37"/>
+      <c r="BS1" s="37"/>
+      <c r="BT1" s="37"/>
+      <c r="BU1" s="37"/>
+      <c r="BV1" s="37"/>
+      <c r="BW1" s="37"/>
+      <c r="BX1" s="37"/>
+      <c r="BY1" s="37"/>
+      <c r="BZ1" s="37"/>
+      <c r="CA1" s="37"/>
+      <c r="CB1" s="37"/>
+      <c r="CC1" s="37"/>
+      <c r="CD1" s="37"/>
+      <c r="CE1" s="37"/>
+      <c r="CF1" s="37"/>
+      <c r="CG1" s="37"/>
+      <c r="CH1" s="37"/>
     </row>
     <row r="2" spans="1:86" s="1" customFormat="1">
       <c r="G2" s="13" t="s">
@@ -1972,20 +2002,20 @@
       <c r="H2" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="22">
+      <c r="I2" s="21">
         <v>3</v>
       </c>
-      <c r="J2" s="50">
+      <c r="J2" s="21">
         <v>5</v>
       </c>
-      <c r="K2" s="22"/>
+      <c r="K2" s="21"/>
       <c r="L2" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="M2" s="19">
+      <c r="M2" s="18">
         <v>45093</v>
       </c>
-      <c r="N2" s="22">
+      <c r="N2" s="21">
         <v>59</v>
       </c>
       <c r="O2" s="13" t="s">
@@ -2073,20 +2103,20 @@
       <c r="H3" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="22">
+      <c r="I3" s="21">
         <v>3</v>
       </c>
-      <c r="J3" s="50">
+      <c r="J3" s="21">
         <v>3</v>
       </c>
-      <c r="K3" s="22"/>
+      <c r="K3" s="21"/>
       <c r="L3" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="M3" s="19">
+      <c r="M3" s="18">
         <v>45095</v>
       </c>
-      <c r="N3" s="22">
+      <c r="N3" s="21">
         <v>109</v>
       </c>
       <c r="O3" s="13" t="s">
@@ -2174,23 +2204,23 @@
       <c r="H4" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="I4" s="22">
+      <c r="I4" s="21">
         <v>18</v>
       </c>
-      <c r="J4" s="50">
+      <c r="J4" s="21">
         <f>19+20+14+20+20+20+18+20+18+20</f>
         <v>189</v>
       </c>
-      <c r="K4" s="22">
+      <c r="K4" s="21">
         <v>18</v>
       </c>
       <c r="L4" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="M4" s="19">
+      <c r="M4" s="18">
         <v>45139</v>
       </c>
-      <c r="N4" s="22"/>
+      <c r="N4" s="21"/>
       <c r="O4" s="13" t="s">
         <v>213</v>
       </c>
@@ -2270,28 +2300,28 @@
       <c r="CH4" s="2"/>
     </row>
     <row r="5" spans="1:86">
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="19" t="s">
         <v>134</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="21">
         <v>3</v>
       </c>
-      <c r="J5" s="50">
+      <c r="J5" s="21">
         <v>9</v>
       </c>
-      <c r="K5" s="22">
+      <c r="K5" s="21">
         <v>1</v>
       </c>
-      <c r="L5" s="24" t="s">
+      <c r="L5" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="M5" s="25">
+      <c r="M5" s="24">
         <v>45122</v>
       </c>
-      <c r="N5" s="45">
+      <c r="N5" s="44">
         <v>2385</v>
       </c>
       <c r="O5" s="6" t="s">
@@ -2303,59 +2333,59 @@
       <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:86" s="1" customFormat="1">
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="19" t="s">
         <v>132</v>
       </c>
       <c r="H6" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="50">
+      <c r="I6" s="21"/>
+      <c r="J6" s="21">
         <v>2</v>
       </c>
-      <c r="K6" s="22"/>
+      <c r="K6" s="21"/>
       <c r="L6" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="M6" s="19">
+      <c r="M6" s="18">
         <v>45119</v>
       </c>
-      <c r="N6" s="22"/>
+      <c r="N6" s="21"/>
       <c r="O6" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="P6" s="43"/>
+      <c r="P6" s="42"/>
       <c r="Q6" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="R6" s="40"/>
+      <c r="R6" s="39"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
     </row>
     <row r="7" spans="1:86" s="1" customFormat="1">
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="19" t="s">
         <v>132</v>
       </c>
       <c r="H7" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="50">
+      <c r="I7" s="21"/>
+      <c r="J7" s="21">
         <v>2</v>
       </c>
-      <c r="K7" s="22"/>
+      <c r="K7" s="21"/>
       <c r="L7" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="M7" s="19">
+      <c r="M7" s="18">
         <v>45117</v>
       </c>
-      <c r="N7" s="22"/>
+      <c r="N7" s="21"/>
       <c r="O7" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="P7" s="44"/>
+      <c r="P7" s="43"/>
       <c r="Q7" s="12"/>
       <c r="S7" s="1" t="s">
         <v>6</v>
@@ -2365,28 +2395,28 @@
       <c r="V7" s="3"/>
     </row>
     <row r="8" spans="1:86" s="1" customFormat="1">
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="19" t="s">
         <v>132</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="50">
+      <c r="I8" s="21"/>
+      <c r="J8" s="21">
         <v>2</v>
       </c>
-      <c r="K8" s="22"/>
+      <c r="K8" s="21"/>
       <c r="L8" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="M8" s="19">
+      <c r="M8" s="18">
         <v>45117</v>
       </c>
-      <c r="N8" s="22"/>
+      <c r="N8" s="21"/>
       <c r="O8" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="P8" s="44"/>
+      <c r="P8" s="43"/>
       <c r="Q8" s="12" t="s">
         <v>103</v>
       </c>
@@ -2395,28 +2425,28 @@
       <c r="V8" s="3"/>
     </row>
     <row r="9" spans="1:86" s="1" customFormat="1">
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="19" t="s">
         <v>132</v>
       </c>
       <c r="H9" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="21">
         <v>5</v>
       </c>
-      <c r="J9" s="50">
+      <c r="J9" s="21">
         <v>28</v>
       </c>
-      <c r="K9" s="22">
+      <c r="K9" s="21">
         <v>5</v>
       </c>
       <c r="L9" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="M9" s="19">
+      <c r="M9" s="18">
         <v>45135</v>
       </c>
-      <c r="N9" s="22">
+      <c r="N9" s="21">
         <v>306</v>
       </c>
       <c r="O9" s="14" t="s">
@@ -2432,248 +2462,248 @@
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
     </row>
-    <row r="10" spans="1:86" s="1" customFormat="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="26" t="s">
+    <row r="10" spans="1:86" s="55" customFormat="1">
+      <c r="A10" s="48"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="I10" s="42">
+      <c r="I10" s="50">
         <v>19</v>
       </c>
-      <c r="J10" s="51">
+      <c r="J10" s="50">
         <v>10</v>
       </c>
-      <c r="K10" s="42"/>
-      <c r="L10" s="27" t="s">
+      <c r="K10" s="50"/>
+      <c r="L10" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="M10" s="28">
+      <c r="M10" s="52">
         <v>45173</v>
       </c>
-      <c r="N10" s="42">
+      <c r="N10" s="50">
         <v>463</v>
       </c>
-      <c r="O10" s="13" t="s">
+      <c r="O10" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="P10" s="29" t="s">
+      <c r="P10" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="Q10" s="27" t="s">
+      <c r="Q10" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="2"/>
-      <c r="AD10" s="2"/>
-      <c r="AE10" s="2"/>
-      <c r="AF10" s="2"/>
-      <c r="AG10" s="2"/>
-      <c r="AH10" s="2"/>
-      <c r="AI10" s="2"/>
-      <c r="AJ10" s="2"/>
-      <c r="AK10" s="2"/>
-      <c r="AL10" s="2"/>
-      <c r="AM10" s="2"/>
-      <c r="AN10" s="2"/>
-      <c r="AO10" s="2"/>
-      <c r="AP10" s="2"/>
-      <c r="AQ10" s="2"/>
-      <c r="AR10" s="2"/>
-      <c r="AS10" s="2"/>
-      <c r="AT10" s="2"/>
-      <c r="AU10" s="2"/>
-      <c r="AV10" s="2"/>
-      <c r="AW10" s="2"/>
-      <c r="AX10" s="2"/>
-      <c r="AY10" s="2"/>
-      <c r="AZ10" s="2"/>
-      <c r="BA10" s="2"/>
-      <c r="BB10" s="2"/>
-      <c r="BC10" s="2"/>
-      <c r="BD10" s="2"/>
-      <c r="BE10" s="2"/>
-      <c r="BF10" s="2"/>
-      <c r="BG10" s="2"/>
-      <c r="BH10" s="2"/>
-      <c r="BI10" s="2"/>
-      <c r="BJ10" s="2"/>
-      <c r="BK10" s="2"/>
-      <c r="BL10" s="2"/>
-      <c r="BM10" s="2"/>
-      <c r="BN10" s="2"/>
-      <c r="BO10" s="2"/>
-      <c r="BP10" s="2"/>
-      <c r="BQ10" s="2"/>
-      <c r="BR10" s="2"/>
-      <c r="BS10" s="2"/>
-      <c r="BT10" s="2"/>
-      <c r="BU10" s="2"/>
-      <c r="BV10" s="2"/>
-      <c r="BW10" s="2"/>
-      <c r="BX10" s="2"/>
-      <c r="BY10" s="2"/>
-      <c r="BZ10" s="2"/>
-      <c r="CA10" s="2"/>
-      <c r="CB10" s="2"/>
-      <c r="CC10" s="2"/>
-      <c r="CD10" s="2"/>
-      <c r="CE10" s="2"/>
-      <c r="CF10" s="2"/>
-      <c r="CG10" s="2"/>
-      <c r="CH10" s="2"/>
-    </row>
-    <row r="11" spans="1:86" s="1" customFormat="1">
-      <c r="G11" s="26" t="s">
+      <c r="S10" s="48"/>
+      <c r="T10" s="48"/>
+      <c r="U10" s="48"/>
+      <c r="V10" s="48"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="56"/>
+      <c r="AB10" s="56"/>
+      <c r="AC10" s="56"/>
+      <c r="AD10" s="56"/>
+      <c r="AE10" s="56"/>
+      <c r="AF10" s="56"/>
+      <c r="AG10" s="56"/>
+      <c r="AH10" s="56"/>
+      <c r="AI10" s="56"/>
+      <c r="AJ10" s="56"/>
+      <c r="AK10" s="56"/>
+      <c r="AL10" s="56"/>
+      <c r="AM10" s="56"/>
+      <c r="AN10" s="56"/>
+      <c r="AO10" s="56"/>
+      <c r="AP10" s="56"/>
+      <c r="AQ10" s="56"/>
+      <c r="AR10" s="56"/>
+      <c r="AS10" s="56"/>
+      <c r="AT10" s="56"/>
+      <c r="AU10" s="56"/>
+      <c r="AV10" s="56"/>
+      <c r="AW10" s="56"/>
+      <c r="AX10" s="56"/>
+      <c r="AY10" s="56"/>
+      <c r="AZ10" s="56"/>
+      <c r="BA10" s="56"/>
+      <c r="BB10" s="56"/>
+      <c r="BC10" s="56"/>
+      <c r="BD10" s="56"/>
+      <c r="BE10" s="56"/>
+      <c r="BF10" s="56"/>
+      <c r="BG10" s="56"/>
+      <c r="BH10" s="56"/>
+      <c r="BI10" s="56"/>
+      <c r="BJ10" s="56"/>
+      <c r="BK10" s="56"/>
+      <c r="BL10" s="56"/>
+      <c r="BM10" s="56"/>
+      <c r="BN10" s="56"/>
+      <c r="BO10" s="56"/>
+      <c r="BP10" s="56"/>
+      <c r="BQ10" s="56"/>
+      <c r="BR10" s="56"/>
+      <c r="BS10" s="56"/>
+      <c r="BT10" s="56"/>
+      <c r="BU10" s="56"/>
+      <c r="BV10" s="56"/>
+      <c r="BW10" s="56"/>
+      <c r="BX10" s="56"/>
+      <c r="BY10" s="56"/>
+      <c r="BZ10" s="56"/>
+      <c r="CA10" s="56"/>
+      <c r="CB10" s="56"/>
+      <c r="CC10" s="56"/>
+      <c r="CD10" s="56"/>
+      <c r="CE10" s="56"/>
+      <c r="CF10" s="56"/>
+      <c r="CG10" s="56"/>
+      <c r="CH10" s="56"/>
+    </row>
+    <row r="11" spans="1:86" s="55" customFormat="1">
+      <c r="G11" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="H11" s="26" t="s">
+      <c r="H11" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="I11" s="42">
+      <c r="I11" s="50">
         <v>34</v>
       </c>
-      <c r="J11" s="51">
+      <c r="J11" s="50">
         <v>3</v>
       </c>
-      <c r="K11" s="42">
+      <c r="K11" s="50">
         <v>2</v>
       </c>
-      <c r="L11" s="27" t="s">
+      <c r="L11" s="51" t="s">
         <v>181</v>
       </c>
-      <c r="M11" s="28">
+      <c r="M11" s="52">
         <v>45168</v>
       </c>
-      <c r="N11" s="42">
+      <c r="N11" s="50">
         <v>489</v>
       </c>
-      <c r="O11" s="13" t="s">
+      <c r="O11" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="P11" s="29" t="s">
+      <c r="P11" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="Q11" s="27" t="s">
+      <c r="Q11" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
-      <c r="AC11" s="2"/>
-      <c r="AD11" s="2"/>
-      <c r="AE11" s="2"/>
-      <c r="AF11" s="2"/>
-      <c r="AG11" s="2"/>
-      <c r="AH11" s="2"/>
-      <c r="AI11" s="2"/>
-      <c r="AJ11" s="2"/>
-      <c r="AK11" s="2"/>
-      <c r="AL11" s="2"/>
-      <c r="AM11" s="2"/>
-      <c r="AN11" s="2"/>
-      <c r="AO11" s="2"/>
-      <c r="AP11" s="2"/>
-      <c r="AQ11" s="2"/>
-      <c r="AR11" s="2"/>
-      <c r="AS11" s="2"/>
-      <c r="AT11" s="2"/>
-      <c r="AU11" s="2"/>
-      <c r="AV11" s="2"/>
-      <c r="AW11" s="2"/>
-      <c r="AX11" s="2"/>
-      <c r="AY11" s="2"/>
-      <c r="AZ11" s="2"/>
-      <c r="BA11" s="2"/>
-      <c r="BB11" s="2"/>
-      <c r="BC11" s="2"/>
-      <c r="BD11" s="2"/>
-      <c r="BE11" s="2"/>
-      <c r="BF11" s="2"/>
-      <c r="BG11" s="2"/>
-      <c r="BH11" s="2"/>
-      <c r="BI11" s="2"/>
-      <c r="BJ11" s="2"/>
-      <c r="BK11" s="2"/>
-      <c r="BL11" s="2"/>
-      <c r="BM11" s="2"/>
-      <c r="BN11" s="2"/>
-      <c r="BO11" s="2"/>
-      <c r="BP11" s="2"/>
-      <c r="BQ11" s="2"/>
-      <c r="BR11" s="2"/>
-      <c r="BS11" s="2"/>
-      <c r="BT11" s="2"/>
-      <c r="BU11" s="2"/>
-      <c r="BV11" s="2"/>
-      <c r="BW11" s="2"/>
-      <c r="BX11" s="2"/>
-      <c r="BY11" s="2"/>
-      <c r="BZ11" s="2"/>
-      <c r="CA11" s="2"/>
-      <c r="CB11" s="2"/>
-      <c r="CC11" s="2"/>
-      <c r="CD11" s="2"/>
-      <c r="CE11" s="2"/>
-      <c r="CF11" s="2"/>
-      <c r="CG11" s="2"/>
-      <c r="CH11" s="2"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="56"/>
+      <c r="X11" s="56"/>
+      <c r="Y11" s="56"/>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="56"/>
+      <c r="AB11" s="56"/>
+      <c r="AC11" s="56"/>
+      <c r="AD11" s="56"/>
+      <c r="AE11" s="56"/>
+      <c r="AF11" s="56"/>
+      <c r="AG11" s="56"/>
+      <c r="AH11" s="56"/>
+      <c r="AI11" s="56"/>
+      <c r="AJ11" s="56"/>
+      <c r="AK11" s="56"/>
+      <c r="AL11" s="56"/>
+      <c r="AM11" s="56"/>
+      <c r="AN11" s="56"/>
+      <c r="AO11" s="56"/>
+      <c r="AP11" s="56"/>
+      <c r="AQ11" s="56"/>
+      <c r="AR11" s="56"/>
+      <c r="AS11" s="56"/>
+      <c r="AT11" s="56"/>
+      <c r="AU11" s="56"/>
+      <c r="AV11" s="56"/>
+      <c r="AW11" s="56"/>
+      <c r="AX11" s="56"/>
+      <c r="AY11" s="56"/>
+      <c r="AZ11" s="56"/>
+      <c r="BA11" s="56"/>
+      <c r="BB11" s="56"/>
+      <c r="BC11" s="56"/>
+      <c r="BD11" s="56"/>
+      <c r="BE11" s="56"/>
+      <c r="BF11" s="56"/>
+      <c r="BG11" s="56"/>
+      <c r="BH11" s="56"/>
+      <c r="BI11" s="56"/>
+      <c r="BJ11" s="56"/>
+      <c r="BK11" s="56"/>
+      <c r="BL11" s="56"/>
+      <c r="BM11" s="56"/>
+      <c r="BN11" s="56"/>
+      <c r="BO11" s="56"/>
+      <c r="BP11" s="56"/>
+      <c r="BQ11" s="56"/>
+      <c r="BR11" s="56"/>
+      <c r="BS11" s="56"/>
+      <c r="BT11" s="56"/>
+      <c r="BU11" s="56"/>
+      <c r="BV11" s="56"/>
+      <c r="BW11" s="56"/>
+      <c r="BX11" s="56"/>
+      <c r="BY11" s="56"/>
+      <c r="BZ11" s="56"/>
+      <c r="CA11" s="56"/>
+      <c r="CB11" s="56"/>
+      <c r="CC11" s="56"/>
+      <c r="CD11" s="56"/>
+      <c r="CE11" s="56"/>
+      <c r="CF11" s="56"/>
+      <c r="CG11" s="56"/>
+      <c r="CH11" s="56"/>
     </row>
     <row r="12" spans="1:86" s="1" customFormat="1">
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="H12" s="26" t="s">
+      <c r="H12" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="I12" s="42">
+      <c r="I12" s="41">
         <v>14</v>
       </c>
-      <c r="J12" s="51" t="s">
+      <c r="J12" s="41" t="s">
         <v>248</v>
       </c>
-      <c r="K12" s="42">
+      <c r="K12" s="41">
         <v>2</v>
       </c>
-      <c r="L12" s="27" t="s">
+      <c r="L12" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="M12" s="28">
+      <c r="M12" s="27">
         <v>45134</v>
       </c>
-      <c r="N12" s="42">
+      <c r="N12" s="41">
         <v>463</v>
       </c>
       <c r="O12" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="P12" s="29" t="s">
+      <c r="P12" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="Q12" s="27" t="s">
+      <c r="Q12" s="26" t="s">
         <v>107</v>
       </c>
       <c r="S12" s="3"/>
@@ -2752,24 +2782,24 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="19" t="s">
         <v>132</v>
       </c>
       <c r="H13" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="I13" s="22"/>
-      <c r="J13" s="50">
+      <c r="I13" s="21"/>
+      <c r="J13" s="21">
         <v>19</v>
       </c>
-      <c r="K13" s="22"/>
+      <c r="K13" s="21"/>
       <c r="L13" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="M13" s="19">
+      <c r="M13" s="18">
         <v>45142</v>
       </c>
-      <c r="N13" s="22">
+      <c r="N13" s="21">
         <v>502</v>
       </c>
       <c r="O13" s="14" t="s">
@@ -2850,32 +2880,32 @@
       <c r="CH13" s="2"/>
     </row>
     <row r="14" spans="1:86" s="1" customFormat="1">
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="H14" s="26" t="s">
+      <c r="H14" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="I14" s="42">
+      <c r="I14" s="41">
         <v>24</v>
       </c>
-      <c r="J14" s="51">
+      <c r="J14" s="41">
         <v>10</v>
       </c>
-      <c r="K14" s="42"/>
+      <c r="K14" s="41"/>
       <c r="L14" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="M14" s="28">
+      <c r="M14" s="27">
         <v>45164</v>
       </c>
-      <c r="N14" s="42">
+      <c r="N14" s="41">
         <v>555</v>
       </c>
       <c r="O14" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="P14" s="29" t="s">
+      <c r="P14" s="28" t="s">
         <v>210</v>
       </c>
       <c r="Q14" s="12" t="s">
@@ -2951,30 +2981,30 @@
       <c r="CH14" s="2"/>
     </row>
     <row r="15" spans="1:86" s="1" customFormat="1">
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="H15" s="26" t="s">
+      <c r="H15" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="I15" s="42"/>
-      <c r="J15" s="51">
+      <c r="I15" s="41"/>
+      <c r="J15" s="41">
         <v>5</v>
       </c>
-      <c r="K15" s="42"/>
+      <c r="K15" s="41"/>
       <c r="L15" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="M15" s="28">
+      <c r="M15" s="27">
         <v>45127</v>
       </c>
-      <c r="N15" s="42">
+      <c r="N15" s="41">
         <v>535</v>
       </c>
       <c r="O15" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="P15" s="29" t="s">
+      <c r="P15" s="28" t="s">
         <v>239</v>
       </c>
       <c r="Q15" s="12" t="s">
@@ -3050,30 +3080,30 @@
       <c r="CH15" s="2"/>
     </row>
     <row r="16" spans="1:86" s="1" customFormat="1">
-      <c r="G16" s="26" t="s">
+      <c r="G16" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="H16" s="26" t="s">
+      <c r="H16" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="I16" s="42"/>
-      <c r="J16" s="51">
+      <c r="I16" s="41"/>
+      <c r="J16" s="41">
         <v>7</v>
       </c>
-      <c r="K16" s="42"/>
+      <c r="K16" s="41"/>
       <c r="L16" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="M16" s="28">
+      <c r="M16" s="27">
         <v>45157</v>
       </c>
-      <c r="N16" s="42">
+      <c r="N16" s="41">
         <v>544</v>
       </c>
       <c r="O16" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="P16" s="29" t="s">
+      <c r="P16" s="28" t="s">
         <v>244</v>
       </c>
       <c r="Q16" s="12" t="s">
@@ -3148,106 +3178,106 @@
       <c r="CG16" s="2"/>
       <c r="CH16" s="2"/>
     </row>
-    <row r="17" spans="1:86" s="1" customFormat="1">
-      <c r="G17" s="13" t="s">
+    <row r="17" spans="1:86" s="55" customFormat="1">
+      <c r="G17" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I17" s="57">
         <v>2</v>
       </c>
-      <c r="J17" s="50">
+      <c r="J17" s="57">
         <v>7</v>
       </c>
-      <c r="K17" s="22"/>
-      <c r="L17" s="16" t="s">
+      <c r="K17" s="57"/>
+      <c r="L17" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="M17" s="19">
+      <c r="M17" s="59">
         <v>45093</v>
       </c>
-      <c r="N17" s="22">
+      <c r="N17" s="57">
         <v>59</v>
       </c>
-      <c r="O17" s="13" t="s">
+      <c r="O17" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="P17" s="1" t="s">
+      <c r="P17" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="Q17" s="16" t="s">
+      <c r="Q17" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="R17" s="16"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
-      <c r="AB17" s="2"/>
-      <c r="AC17" s="2"/>
-      <c r="AD17" s="2"/>
-      <c r="AE17" s="2"/>
-      <c r="AF17" s="2"/>
-      <c r="AG17" s="2"/>
-      <c r="AH17" s="2"/>
-      <c r="AI17" s="2"/>
-      <c r="AJ17" s="2"/>
-      <c r="AK17" s="2"/>
-      <c r="AL17" s="2"/>
-      <c r="AM17" s="2"/>
-      <c r="AN17" s="2"/>
-      <c r="AO17" s="2"/>
-      <c r="AP17" s="2"/>
-      <c r="AQ17" s="2"/>
-      <c r="AR17" s="2"/>
-      <c r="AS17" s="2"/>
-      <c r="AT17" s="2"/>
-      <c r="AU17" s="2"/>
-      <c r="AV17" s="2"/>
-      <c r="AW17" s="2"/>
-      <c r="AX17" s="2"/>
-      <c r="AY17" s="2"/>
-      <c r="AZ17" s="2"/>
-      <c r="BA17" s="2"/>
-      <c r="BB17" s="2"/>
-      <c r="BC17" s="2"/>
-      <c r="BD17" s="2"/>
-      <c r="BE17" s="2"/>
-      <c r="BF17" s="2"/>
-      <c r="BG17" s="2"/>
-      <c r="BH17" s="2"/>
-      <c r="BI17" s="2"/>
-      <c r="BJ17" s="2"/>
-      <c r="BK17" s="2"/>
-      <c r="BL17" s="2"/>
-      <c r="BM17" s="2"/>
-      <c r="BN17" s="2"/>
-      <c r="BO17" s="2"/>
-      <c r="BP17" s="2"/>
-      <c r="BQ17" s="2"/>
-      <c r="BR17" s="2"/>
-      <c r="BS17" s="2"/>
-      <c r="BT17" s="2"/>
-      <c r="BU17" s="2"/>
-      <c r="BV17" s="2"/>
-      <c r="BW17" s="2"/>
-      <c r="BX17" s="2"/>
-      <c r="BY17" s="2"/>
-      <c r="BZ17" s="2"/>
-      <c r="CA17" s="2"/>
-      <c r="CB17" s="2"/>
-      <c r="CC17" s="2"/>
-      <c r="CD17" s="2"/>
-      <c r="CE17" s="2"/>
-      <c r="CF17" s="2"/>
-      <c r="CG17" s="2"/>
-      <c r="CH17" s="2"/>
+      <c r="R17" s="58"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="48"/>
+      <c r="V17" s="48"/>
+      <c r="W17" s="56"/>
+      <c r="X17" s="56"/>
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="56"/>
+      <c r="AA17" s="56"/>
+      <c r="AB17" s="56"/>
+      <c r="AC17" s="56"/>
+      <c r="AD17" s="56"/>
+      <c r="AE17" s="56"/>
+      <c r="AF17" s="56"/>
+      <c r="AG17" s="56"/>
+      <c r="AH17" s="56"/>
+      <c r="AI17" s="56"/>
+      <c r="AJ17" s="56"/>
+      <c r="AK17" s="56"/>
+      <c r="AL17" s="56"/>
+      <c r="AM17" s="56"/>
+      <c r="AN17" s="56"/>
+      <c r="AO17" s="56"/>
+      <c r="AP17" s="56"/>
+      <c r="AQ17" s="56"/>
+      <c r="AR17" s="56"/>
+      <c r="AS17" s="56"/>
+      <c r="AT17" s="56"/>
+      <c r="AU17" s="56"/>
+      <c r="AV17" s="56"/>
+      <c r="AW17" s="56"/>
+      <c r="AX17" s="56"/>
+      <c r="AY17" s="56"/>
+      <c r="AZ17" s="56"/>
+      <c r="BA17" s="56"/>
+      <c r="BB17" s="56"/>
+      <c r="BC17" s="56"/>
+      <c r="BD17" s="56"/>
+      <c r="BE17" s="56"/>
+      <c r="BF17" s="56"/>
+      <c r="BG17" s="56"/>
+      <c r="BH17" s="56"/>
+      <c r="BI17" s="56"/>
+      <c r="BJ17" s="56"/>
+      <c r="BK17" s="56"/>
+      <c r="BL17" s="56"/>
+      <c r="BM17" s="56"/>
+      <c r="BN17" s="56"/>
+      <c r="BO17" s="56"/>
+      <c r="BP17" s="56"/>
+      <c r="BQ17" s="56"/>
+      <c r="BR17" s="56"/>
+      <c r="BS17" s="56"/>
+      <c r="BT17" s="56"/>
+      <c r="BU17" s="56"/>
+      <c r="BV17" s="56"/>
+      <c r="BW17" s="56"/>
+      <c r="BX17" s="56"/>
+      <c r="BY17" s="56"/>
+      <c r="BZ17" s="56"/>
+      <c r="CA17" s="56"/>
+      <c r="CB17" s="56"/>
+      <c r="CC17" s="56"/>
+      <c r="CD17" s="56"/>
+      <c r="CE17" s="56"/>
+      <c r="CF17" s="56"/>
+      <c r="CG17" s="56"/>
+      <c r="CH17" s="56"/>
     </row>
     <row r="18" spans="1:86" s="1" customFormat="1">
       <c r="G18" s="13" t="s">
@@ -3256,20 +3286,20 @@
       <c r="H18" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I18" s="22">
+      <c r="I18" s="21">
         <v>6</v>
       </c>
-      <c r="J18" s="50">
+      <c r="J18" s="21">
         <v>8</v>
       </c>
-      <c r="K18" s="22"/>
+      <c r="K18" s="21"/>
       <c r="L18" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="M18" s="19">
+      <c r="M18" s="18">
         <v>45095</v>
       </c>
-      <c r="N18" s="22">
+      <c r="N18" s="21">
         <v>109</v>
       </c>
       <c r="O18" s="13" t="s">
@@ -3357,20 +3387,20 @@
       <c r="H19" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I19" s="21">
         <v>3</v>
       </c>
-      <c r="J19" s="50">
+      <c r="J19" s="21">
         <v>4</v>
       </c>
-      <c r="K19" s="22"/>
-      <c r="L19" s="24" t="s">
+      <c r="K19" s="21"/>
+      <c r="L19" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="M19" s="25">
+      <c r="M19" s="24">
         <v>45119</v>
       </c>
-      <c r="N19" s="45">
+      <c r="N19" s="44">
         <v>2782</v>
       </c>
       <c r="O19" s="6" t="s">
@@ -3397,22 +3427,22 @@
       <c r="H20" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="I20" s="22">
+      <c r="I20" s="21">
         <v>4</v>
       </c>
-      <c r="J20" s="50">
+      <c r="J20" s="21">
         <v>4</v>
       </c>
-      <c r="K20" s="22">
+      <c r="K20" s="21">
         <v>1</v>
       </c>
-      <c r="L20" s="24" t="s">
+      <c r="L20" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="M20" s="25">
+      <c r="M20" s="24">
         <v>45121</v>
       </c>
-      <c r="N20" s="45">
+      <c r="N20" s="44">
         <v>2199</v>
       </c>
       <c r="O20" s="6" t="s">
@@ -3505,20 +3535,20 @@
       <c r="H21" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="I21" s="22">
+      <c r="I21" s="21">
         <v>2</v>
       </c>
-      <c r="J21" s="50">
+      <c r="J21" s="21">
         <v>2</v>
       </c>
-      <c r="K21" s="22"/>
-      <c r="L21" s="24" t="s">
+      <c r="K21" s="21"/>
+      <c r="L21" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="M21" s="25">
+      <c r="M21" s="24">
         <v>45188</v>
       </c>
-      <c r="N21" s="22"/>
+      <c r="N21" s="21"/>
       <c r="O21" s="6" t="s">
         <v>159</v>
       </c>
@@ -3595,26 +3625,26 @@
       <c r="CH21" s="2"/>
     </row>
     <row r="22" spans="1:86" ht="15" customHeight="1">
-      <c r="G22" s="26" t="s">
+      <c r="G22" s="25" t="s">
         <v>151</v>
       </c>
       <c r="H22" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="I22" s="22">
+      <c r="I22" s="21">
         <v>12</v>
       </c>
-      <c r="J22" s="50">
+      <c r="J22" s="21">
         <v>9</v>
       </c>
-      <c r="K22" s="22"/>
+      <c r="K22" s="21"/>
       <c r="L22" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="M22" s="19">
+      <c r="M22" s="18">
         <v>45109</v>
       </c>
-      <c r="N22" s="22">
+      <c r="N22" s="21">
         <v>150</v>
       </c>
       <c r="O22" s="13" t="s">
@@ -3629,198 +3659,198 @@
       <c r="R22" s="16"/>
       <c r="S22" s="1"/>
     </row>
-    <row r="23" spans="1:86" ht="15" customHeight="1">
-      <c r="G23" s="26" t="s">
+    <row r="23" spans="1:86" s="48" customFormat="1" ht="15" customHeight="1">
+      <c r="G23" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="H23" s="13" t="s">
+      <c r="H23" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="I23" s="22"/>
-      <c r="J23" s="50">
+      <c r="I23" s="57"/>
+      <c r="J23" s="57">
         <v>24</v>
       </c>
-      <c r="K23" s="22">
+      <c r="K23" s="57">
         <v>4</v>
       </c>
-      <c r="L23" s="16" t="s">
+      <c r="L23" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="M23" s="19">
+      <c r="M23" s="59">
         <v>45160</v>
       </c>
-      <c r="N23" s="22">
+      <c r="N23" s="57">
         <v>352</v>
       </c>
-      <c r="O23" s="13" t="s">
+      <c r="O23" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="P23" s="17" t="s">
+      <c r="P23" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="Q23" s="12" t="s">
+      <c r="Q23" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="R23" s="1"/>
-      <c r="S23" s="13"/>
-    </row>
-    <row r="24" spans="1:86" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="G24" s="26" t="s">
+      <c r="R23" s="55"/>
+      <c r="S23" s="53"/>
+    </row>
+    <row r="24" spans="1:86" s="53" customFormat="1" ht="15" customHeight="1">
+      <c r="G24" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="H24" s="26" t="s">
+      <c r="H24" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="I24" s="42">
+      <c r="I24" s="50">
         <v>19</v>
       </c>
-      <c r="J24" s="51"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="27" t="s">
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="M24" s="28">
+      <c r="M24" s="52">
         <v>45168</v>
       </c>
-      <c r="N24" s="42">
+      <c r="N24" s="50">
         <v>552</v>
       </c>
-      <c r="O24" s="13" t="s">
+      <c r="O24" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="P24" s="29" t="s">
+      <c r="P24" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="Q24" s="27" t="s">
+      <c r="Q24" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="R24" s="1"/>
-      <c r="S24" s="3"/>
-    </row>
-    <row r="25" spans="1:86" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="G25" s="26" t="s">
+      <c r="R24" s="55"/>
+      <c r="S24" s="48"/>
+    </row>
+    <row r="25" spans="1:86" s="53" customFormat="1" ht="15" customHeight="1">
+      <c r="G25" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="H25" s="26" t="s">
+      <c r="H25" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="I25" s="42">
+      <c r="I25" s="50">
         <v>11</v>
       </c>
-      <c r="J25" s="51">
+      <c r="J25" s="50">
         <v>4</v>
       </c>
-      <c r="K25" s="42" t="s">
+      <c r="K25" s="50" t="s">
         <v>249</v>
       </c>
-      <c r="L25" s="27" t="s">
+      <c r="L25" s="51" t="s">
         <v>194</v>
       </c>
-      <c r="M25" s="28">
+      <c r="M25" s="52">
         <v>45168</v>
       </c>
-      <c r="N25" s="42">
+      <c r="N25" s="50">
         <v>492</v>
       </c>
-      <c r="O25" s="13" t="s">
+      <c r="O25" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="P25" s="29" t="s">
+      <c r="P25" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="Q25" s="27" t="s">
+      <c r="Q25" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="R25" s="1"/>
-      <c r="S25" s="3"/>
-    </row>
-    <row r="26" spans="1:86" s="13" customFormat="1">
-      <c r="G26" s="13" t="s">
+      <c r="R25" s="55"/>
+      <c r="S25" s="48"/>
+    </row>
+    <row r="26" spans="1:86" s="53" customFormat="1">
+      <c r="G26" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="H26" s="13" t="s">
+      <c r="H26" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="I26" s="22">
+      <c r="I26" s="57">
         <v>23</v>
       </c>
-      <c r="J26" s="50">
+      <c r="J26" s="57">
         <v>11</v>
       </c>
-      <c r="K26" s="22">
+      <c r="K26" s="57">
         <v>2</v>
       </c>
-      <c r="L26" s="16" t="s">
+      <c r="L26" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="M26" s="19">
+      <c r="M26" s="59">
         <v>45173</v>
       </c>
-      <c r="N26" s="22"/>
-      <c r="O26" s="13" t="s">
+      <c r="N26" s="57"/>
+      <c r="O26" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="P26" s="13" t="s">
+      <c r="P26" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="Q26" s="16" t="s">
+      <c r="Q26" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="S26" s="3"/>
-    </row>
-    <row r="27" spans="1:86">
-      <c r="G27" s="13" t="s">
+      <c r="S26" s="48"/>
+    </row>
+    <row r="27" spans="1:86" s="48" customFormat="1">
+      <c r="G27" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="H27" s="13" t="s">
+      <c r="H27" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="I27" s="22">
+      <c r="I27" s="57">
         <v>17</v>
       </c>
-      <c r="J27" s="50">
+      <c r="J27" s="57">
         <v>11</v>
       </c>
-      <c r="K27" s="22"/>
-      <c r="L27" s="16" t="s">
+      <c r="K27" s="57"/>
+      <c r="L27" s="58" t="s">
         <v>191</v>
       </c>
-      <c r="M27" s="19">
+      <c r="M27" s="59">
         <v>45173</v>
       </c>
-      <c r="N27" s="22"/>
-      <c r="O27" s="13" t="s">
+      <c r="N27" s="57"/>
+      <c r="O27" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="P27" s="13" t="s">
+      <c r="P27" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="Q27" s="16" t="s">
+      <c r="Q27" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="R27" s="13"/>
+      <c r="R27" s="53"/>
     </row>
     <row r="28" spans="1:86">
       <c r="G28" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="H28" s="26" t="s">
+      <c r="H28" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="I28" s="22">
+      <c r="I28" s="21">
         <v>1</v>
       </c>
-      <c r="J28" s="50" t="s">
+      <c r="J28" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K28" s="22"/>
+      <c r="K28" s="21"/>
       <c r="L28" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="M28" s="19">
+      <c r="M28" s="18">
         <v>44408</v>
       </c>
-      <c r="N28" s="22">
+      <c r="N28" s="21">
         <v>103</v>
       </c>
       <c r="O28" s="13" t="s">
@@ -3838,25 +3868,25 @@
       <c r="G29" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="H29" s="26" t="s">
+      <c r="H29" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="I29" s="22">
+      <c r="I29" s="21">
         <v>6</v>
       </c>
-      <c r="J29" s="50">
+      <c r="J29" s="21">
         <v>7</v>
       </c>
-      <c r="K29" s="22">
+      <c r="K29" s="21">
         <v>2</v>
       </c>
       <c r="L29" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="M29" s="19">
+      <c r="M29" s="18">
         <v>45122</v>
       </c>
-      <c r="N29" s="22">
+      <c r="N29" s="21">
         <v>461</v>
       </c>
       <c r="O29" s="13" t="s">
@@ -3872,25 +3902,25 @@
       <c r="G30" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="H30" s="26" t="s">
+      <c r="H30" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="I30" s="22">
+      <c r="I30" s="21">
         <v>6</v>
       </c>
-      <c r="J30" s="50">
+      <c r="J30" s="21">
         <v>5</v>
       </c>
-      <c r="K30" s="22">
+      <c r="K30" s="21">
         <v>2</v>
       </c>
       <c r="L30" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="M30" s="19">
+      <c r="M30" s="18">
         <v>45121</v>
       </c>
-      <c r="N30" s="22">
+      <c r="N30" s="21">
         <v>534</v>
       </c>
       <c r="O30" s="13" t="s">
@@ -3909,18 +3939,18 @@
       <c r="H31" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="I31" s="22"/>
-      <c r="J31" s="50">
+      <c r="I31" s="21"/>
+      <c r="J31" s="21">
         <v>25</v>
       </c>
-      <c r="K31" s="22"/>
+      <c r="K31" s="21"/>
       <c r="L31" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="M31" s="19">
+      <c r="M31" s="18">
         <v>45120</v>
       </c>
-      <c r="N31" s="22">
+      <c r="N31" s="21">
         <v>228</v>
       </c>
       <c r="O31" s="14" t="s">
@@ -3935,40 +3965,40 @@
       <c r="R31" s="1"/>
       <c r="S31" s="13"/>
     </row>
-    <row r="32" spans="1:86">
-      <c r="G32" s="13" t="s">
+    <row r="32" spans="1:86" s="48" customFormat="1">
+      <c r="G32" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="H32" s="13" t="s">
+      <c r="H32" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="I32" s="22">
+      <c r="I32" s="57">
         <v>10</v>
       </c>
-      <c r="J32" s="50">
+      <c r="J32" s="57">
         <v>16</v>
       </c>
-      <c r="K32" s="22"/>
-      <c r="L32" s="16" t="s">
+      <c r="K32" s="57"/>
+      <c r="L32" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="M32" s="19">
+      <c r="M32" s="59">
         <v>45124</v>
       </c>
-      <c r="N32" s="22">
+      <c r="N32" s="57">
         <v>242</v>
       </c>
-      <c r="O32" s="13" t="s">
+      <c r="O32" s="53" t="s">
         <v>173</v>
       </c>
-      <c r="P32" s="17" t="s">
+      <c r="P32" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="Q32" s="16" t="s">
+      <c r="Q32" s="58" t="s">
         <v>177</v>
       </c>
-      <c r="R32" s="1"/>
-      <c r="S32" s="13"/>
+      <c r="R32" s="55"/>
+      <c r="S32" s="53"/>
     </row>
     <row r="33" spans="1:86" s="1" customFormat="1">
       <c r="A33" s="3"/>
@@ -3983,22 +4013,22 @@
       <c r="H33" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="I33" s="22">
+      <c r="I33" s="21">
         <v>12</v>
       </c>
-      <c r="J33" s="50">
+      <c r="J33" s="21">
         <v>16</v>
       </c>
-      <c r="K33" s="22">
+      <c r="K33" s="21">
         <v>3</v>
       </c>
       <c r="L33" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="M33" s="19">
+      <c r="M33" s="18">
         <v>45160</v>
       </c>
-      <c r="N33" s="22">
+      <c r="N33" s="21">
         <v>373</v>
       </c>
       <c r="O33" s="13" t="s">
@@ -4007,7 +4037,7 @@
       <c r="P33" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="Q33" s="42" t="s">
+      <c r="Q33" s="41" t="s">
         <v>176</v>
       </c>
       <c r="S33" s="13"/>
@@ -4079,40 +4109,40 @@
       <c r="CG33" s="2"/>
       <c r="CH33" s="2"/>
     </row>
-    <row r="34" spans="1:86" s="1" customFormat="1">
-      <c r="A34" s="17"/>
-      <c r="G34" s="13" t="s">
+    <row r="34" spans="1:86" s="55" customFormat="1">
+      <c r="A34" s="60"/>
+      <c r="G34" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="H34" s="13" t="s">
+      <c r="H34" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="I34" s="22">
+      <c r="I34" s="57">
         <v>15</v>
       </c>
-      <c r="J34" s="50"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="16" t="s">
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="58" t="s">
         <v>192</v>
       </c>
-      <c r="M34" s="19">
+      <c r="M34" s="59">
         <v>45189</v>
       </c>
-      <c r="N34" s="22"/>
-      <c r="O34" s="13" t="s">
+      <c r="N34" s="57"/>
+      <c r="O34" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="P34" s="13" t="s">
+      <c r="P34" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="Q34" s="16" t="s">
+      <c r="Q34" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="R34" s="13"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
+      <c r="R34" s="53"/>
+      <c r="S34" s="48"/>
+      <c r="T34" s="48"/>
+      <c r="U34" s="48"/>
+      <c r="V34" s="48"/>
     </row>
     <row r="35" spans="1:86" s="1" customFormat="1">
       <c r="G35" s="13" t="s">
@@ -4121,18 +4151,18 @@
       <c r="H35" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="I35" s="22">
+      <c r="I35" s="21">
         <v>23</v>
       </c>
-      <c r="J35" s="50"/>
-      <c r="K35" s="22"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
       <c r="L35" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="M35" s="19">
+      <c r="M35" s="18">
         <v>45183</v>
       </c>
-      <c r="N35" s="22"/>
+      <c r="N35" s="21"/>
       <c r="O35" s="13" t="s">
         <v>160</v>
       </c>
@@ -4148,43 +4178,43 @@
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
     </row>
-    <row r="36" spans="1:86" s="1" customFormat="1">
-      <c r="G36" s="13" t="s">
+    <row r="36" spans="1:86" s="55" customFormat="1">
+      <c r="G36" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="H36" s="13" t="s">
+      <c r="H36" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="I36" s="22">
+      <c r="I36" s="57">
         <v>3</v>
       </c>
-      <c r="J36" s="50">
+      <c r="J36" s="57">
         <v>10</v>
       </c>
-      <c r="K36" s="22"/>
-      <c r="L36" s="16" t="s">
+      <c r="K36" s="57"/>
+      <c r="L36" s="58" t="s">
         <v>198</v>
       </c>
-      <c r="M36" s="19">
+      <c r="M36" s="59">
         <v>45175</v>
       </c>
-      <c r="N36" s="22">
+      <c r="N36" s="57">
         <v>106</v>
       </c>
-      <c r="O36" s="13" t="s">
+      <c r="O36" s="53" t="s">
         <v>205</v>
       </c>
-      <c r="P36" s="13" t="s">
+      <c r="P36" s="53" t="s">
         <v>204</v>
       </c>
-      <c r="Q36" s="16" t="s">
+      <c r="Q36" s="58" t="s">
         <v>203</v>
       </c>
-      <c r="R36" s="13"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
-      <c r="V36" s="3"/>
+      <c r="R36" s="53"/>
+      <c r="S36" s="48"/>
+      <c r="T36" s="48"/>
+      <c r="U36" s="48"/>
+      <c r="V36" s="48"/>
     </row>
     <row r="37" spans="1:86" s="1" customFormat="1">
       <c r="G37" s="13" t="s">
@@ -4193,22 +4223,22 @@
       <c r="H37" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I37" s="22">
+      <c r="I37" s="21">
         <v>2</v>
       </c>
-      <c r="J37" s="50">
+      <c r="J37" s="21">
         <v>12</v>
       </c>
-      <c r="K37" s="22">
+      <c r="K37" s="21">
         <v>2</v>
       </c>
       <c r="L37" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="M37" s="19">
+      <c r="M37" s="18">
         <v>45174</v>
       </c>
-      <c r="N37" s="22">
+      <c r="N37" s="21">
         <v>131</v>
       </c>
       <c r="O37" s="13" t="s">
@@ -4233,22 +4263,22 @@
       <c r="H38" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="I38" s="22">
+      <c r="I38" s="21">
         <v>1</v>
       </c>
-      <c r="J38" s="50">
+      <c r="J38" s="21">
         <v>3</v>
       </c>
-      <c r="K38" s="22">
+      <c r="K38" s="21">
         <v>2</v>
       </c>
-      <c r="L38" s="24" t="s">
+      <c r="L38" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="M38" s="25">
+      <c r="M38" s="24">
         <v>45119</v>
       </c>
-      <c r="N38" s="45">
+      <c r="N38" s="44">
         <v>2177</v>
       </c>
       <c r="O38" s="6" t="s">
@@ -4264,41 +4294,41 @@
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
     </row>
-    <row r="39" spans="1:86" s="1" customFormat="1">
-      <c r="G39" s="13" t="s">
+    <row r="39" spans="1:86" s="55" customFormat="1">
+      <c r="G39" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="H39" s="13" t="s">
+      <c r="H39" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="I39" s="22" t="s">
+      <c r="I39" s="57" t="s">
         <v>200</v>
       </c>
-      <c r="J39" s="50"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="16" t="s">
+      <c r="J39" s="57"/>
+      <c r="K39" s="57"/>
+      <c r="L39" s="58" t="s">
         <v>201</v>
       </c>
-      <c r="M39" s="25">
+      <c r="M39" s="62">
         <v>45193</v>
       </c>
-      <c r="N39" s="45">
+      <c r="N39" s="63">
         <v>74</v>
       </c>
-      <c r="O39" s="6" t="s">
+      <c r="O39" s="64" t="s">
         <v>163</v>
       </c>
-      <c r="P39" s="3" t="s">
+      <c r="P39" s="48" t="s">
         <v>206</v>
       </c>
-      <c r="Q39" s="16" t="s">
+      <c r="Q39" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
-      <c r="U39" s="3"/>
-      <c r="V39" s="3"/>
+      <c r="R39" s="48"/>
+      <c r="S39" s="48"/>
+      <c r="T39" s="48"/>
+      <c r="U39" s="48"/>
+      <c r="V39" s="48"/>
     </row>
     <row r="40" spans="1:86" s="1" customFormat="1">
       <c r="G40" s="13" t="s">
@@ -4307,22 +4337,22 @@
       <c r="H40" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="I40" s="22">
+      <c r="I40" s="21">
         <v>16</v>
       </c>
-      <c r="J40" s="50" t="s">
+      <c r="J40" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="K40" s="22">
+      <c r="K40" s="21">
         <v>2</v>
       </c>
       <c r="L40" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="M40" s="19">
+      <c r="M40" s="18">
         <v>45133</v>
       </c>
-      <c r="N40" s="22"/>
+      <c r="N40" s="21"/>
       <c r="O40" s="13" t="s">
         <v>117</v>
       </c>
@@ -4338,40 +4368,40 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
     </row>
-    <row r="41" spans="1:86" s="13" customFormat="1">
-      <c r="G41" s="14" t="s">
+    <row r="41" spans="1:86" s="53" customFormat="1">
+      <c r="G41" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="H41" s="13" t="s">
+      <c r="H41" s="53" t="s">
         <v>179</v>
       </c>
-      <c r="I41" s="22">
+      <c r="I41" s="57">
         <v>10</v>
       </c>
-      <c r="J41" s="50">
+      <c r="J41" s="57">
         <v>19</v>
       </c>
-      <c r="K41" s="22"/>
-      <c r="L41" s="12" t="s">
+      <c r="K41" s="57"/>
+      <c r="L41" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="M41" s="19">
+      <c r="M41" s="59">
         <v>45142</v>
       </c>
-      <c r="N41" s="22">
+      <c r="N41" s="57">
         <v>266</v>
       </c>
-      <c r="O41" s="14" t="s">
+      <c r="O41" s="65" t="s">
         <v>174</v>
       </c>
-      <c r="P41" s="1" t="s">
+      <c r="P41" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="Q41" s="12" t="s">
+      <c r="Q41" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
+      <c r="R41" s="55"/>
+      <c r="S41" s="55"/>
     </row>
     <row r="42" spans="1:86">
       <c r="G42" s="14" t="s">
@@ -4380,66 +4410,66 @@
       <c r="H42" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="I42" s="22">
+      <c r="I42" s="21">
         <v>2</v>
       </c>
-      <c r="J42" s="50"/>
-      <c r="K42" s="22" t="s">
+      <c r="J42" s="21"/>
+      <c r="K42" s="21" t="s">
         <v>249</v>
       </c>
       <c r="L42" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="M42" s="28">
+      <c r="M42" s="27">
         <v>45137</v>
       </c>
-      <c r="N42" s="22"/>
+      <c r="N42" s="21"/>
       <c r="O42" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="P42" s="29" t="s">
+      <c r="P42" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="Q42" s="27" t="s">
+      <c r="Q42" s="26" t="s">
         <v>96</v>
       </c>
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
     </row>
-    <row r="43" spans="1:86">
-      <c r="G43" s="14" t="s">
+    <row r="43" spans="1:86" s="48" customFormat="1">
+      <c r="G43" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="H43" s="13" t="s">
+      <c r="H43" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="I43" s="22">
+      <c r="I43" s="57">
         <v>7</v>
       </c>
-      <c r="J43" s="50" t="s">
+      <c r="J43" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="K43" s="22"/>
-      <c r="L43" s="12" t="s">
+      <c r="K43" s="57"/>
+      <c r="L43" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="M43" s="28">
+      <c r="M43" s="52">
         <v>45136</v>
       </c>
-      <c r="N43" s="42">
+      <c r="N43" s="50">
         <v>70</v>
       </c>
-      <c r="O43" s="14" t="s">
+      <c r="O43" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="P43" s="29" t="s">
+      <c r="P43" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="Q43" s="27" t="s">
+      <c r="Q43" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="R43" s="1"/>
-      <c r="S43" s="18"/>
+      <c r="R43" s="55"/>
+      <c r="S43" s="66"/>
     </row>
     <row r="44" spans="1:86">
       <c r="G44" s="14" t="s">
@@ -4448,80 +4478,80 @@
       <c r="H44" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="I44" s="22">
+      <c r="I44" s="21">
         <v>2</v>
       </c>
-      <c r="J44" s="50"/>
-      <c r="K44" s="22"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
       <c r="L44" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="M44" s="28">
+      <c r="M44" s="27">
         <v>45138</v>
       </c>
-      <c r="N44" s="22"/>
+      <c r="N44" s="21"/>
       <c r="O44" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="P44" s="29" t="s">
+      <c r="P44" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="Q44" s="27" t="s">
+      <c r="Q44" s="26" t="s">
         <v>103</v>
       </c>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
     </row>
-    <row r="45" spans="1:86">
-      <c r="G45" s="1" t="s">
+    <row r="45" spans="1:86" s="48" customFormat="1">
+      <c r="G45" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="H45" s="13" t="s">
+      <c r="H45" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="I45" s="22"/>
-      <c r="J45" s="50"/>
-      <c r="K45" s="22"/>
-      <c r="L45" s="12" t="s">
+      <c r="I45" s="57"/>
+      <c r="J45" s="57"/>
+      <c r="K45" s="57"/>
+      <c r="L45" s="61" t="s">
         <v>189</v>
       </c>
-      <c r="M45" s="19">
+      <c r="M45" s="59">
         <v>45171</v>
       </c>
-      <c r="N45" s="22">
+      <c r="N45" s="57">
         <v>125</v>
       </c>
-      <c r="O45" s="14" t="s">
+      <c r="O45" s="65" t="s">
         <v>143</v>
       </c>
-      <c r="P45" s="1" t="s">
+      <c r="P45" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="Q45" s="12" t="s">
+      <c r="Q45" s="61" t="s">
         <v>175</v>
       </c>
-      <c r="R45" s="12" t="s">
+      <c r="R45" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="S45" s="13"/>
+      <c r="S45" s="53"/>
     </row>
     <row r="46" spans="1:86">
       <c r="G46" s="1" t="s">
         <v>131</v>
       </c>
       <c r="H46" s="13"/>
-      <c r="I46" s="22">
+      <c r="I46" s="21">
         <v>2</v>
       </c>
-      <c r="J46" s="50"/>
-      <c r="K46" s="22"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
       <c r="L46" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="M46" s="19">
+      <c r="M46" s="18">
         <v>33048</v>
       </c>
-      <c r="N46" s="22" t="s">
+      <c r="N46" s="21" t="s">
         <v>225</v>
       </c>
       <c r="O46" s="14" t="s">
@@ -4537,18 +4567,18 @@
         <v>131</v>
       </c>
       <c r="H47" s="13"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="50">
+      <c r="I47" s="21"/>
+      <c r="J47" s="21">
         <v>1</v>
       </c>
-      <c r="K47" s="22"/>
+      <c r="K47" s="21"/>
       <c r="L47" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="M47" s="19">
+      <c r="M47" s="18">
         <v>33062</v>
       </c>
-      <c r="N47" s="22" t="s">
+      <c r="N47" s="21" t="s">
         <v>237</v>
       </c>
       <c r="O47" s="14" t="s">
@@ -4566,22 +4596,22 @@
       <c r="H48" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="I48" s="22">
+      <c r="I48" s="21">
         <v>5</v>
       </c>
-      <c r="J48" s="50">
+      <c r="J48" s="21">
         <v>10</v>
       </c>
-      <c r="K48" s="22">
+      <c r="K48" s="21">
         <v>2</v>
       </c>
-      <c r="L48" s="24" t="s">
+      <c r="L48" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="M48" s="25">
+      <c r="M48" s="24">
         <v>45119</v>
       </c>
-      <c r="N48" s="45">
+      <c r="N48" s="44">
         <v>2782</v>
       </c>
       <c r="O48" s="6" t="s">
@@ -4598,24 +4628,24 @@
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
-      <c r="G49" s="48" t="s">
+      <c r="G49" s="47" t="s">
         <v>232</v>
       </c>
       <c r="H49" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I49" s="22">
+      <c r="I49" s="21">
         <v>6</v>
       </c>
-      <c r="J49" s="50"/>
-      <c r="K49" s="22"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
       <c r="L49" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="M49" s="25">
+      <c r="M49" s="24">
         <v>45193</v>
       </c>
-      <c r="N49" s="45">
+      <c r="N49" s="44">
         <v>74</v>
       </c>
       <c r="O49" s="13" t="s">
@@ -4701,12 +4731,12 @@
         <v>6</v>
       </c>
       <c r="H50" s="1"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="50"/>
-      <c r="K50" s="22"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
       <c r="L50" s="12"/>
       <c r="M50" s="1"/>
-      <c r="N50" s="22"/>
+      <c r="N50" s="21"/>
       <c r="O50" s="14"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="12"/>
@@ -4723,9 +4753,9 @@
     </row>
     <row r="54" spans="1:86">
       <c r="H54" s="13"/>
-      <c r="I54" s="22"/>
-      <c r="J54" s="50"/>
-      <c r="K54" s="22"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="21"/>
     </row>
     <row r="55" spans="1:86">
       <c r="G55" s="6" t="s">
@@ -4738,149 +4768,149 @@
     <row r="132" ht="15" customHeight="1"/>
     <row r="192" ht="15.75" customHeight="1"/>
     <row r="220" spans="1:11">
-      <c r="A220" s="30"/>
-      <c r="B220" s="31"/>
-      <c r="G220" s="32"/>
-      <c r="H220" s="33"/>
-      <c r="I220" s="46"/>
-      <c r="J220" s="53"/>
-      <c r="K220" s="46"/>
+      <c r="A220" s="29"/>
+      <c r="B220" s="30"/>
+      <c r="G220" s="31"/>
+      <c r="H220" s="32"/>
+      <c r="I220" s="45"/>
+      <c r="J220" s="45"/>
+      <c r="K220" s="45"/>
     </row>
     <row r="221" spans="1:11">
-      <c r="A221" s="30"/>
-      <c r="B221" s="31"/>
-      <c r="G221" s="32"/>
-      <c r="H221" s="33"/>
-      <c r="I221" s="46"/>
-      <c r="J221" s="53"/>
-      <c r="K221" s="46"/>
+      <c r="A221" s="29"/>
+      <c r="B221" s="30"/>
+      <c r="G221" s="31"/>
+      <c r="H221" s="32"/>
+      <c r="I221" s="45"/>
+      <c r="J221" s="45"/>
+      <c r="K221" s="45"/>
     </row>
     <row r="222" spans="1:11">
-      <c r="A222" s="30"/>
-      <c r="B222" s="31"/>
-      <c r="G222" s="32"/>
-      <c r="H222" s="33"/>
-      <c r="I222" s="46"/>
-      <c r="J222" s="53"/>
-      <c r="K222" s="46"/>
+      <c r="A222" s="29"/>
+      <c r="B222" s="30"/>
+      <c r="G222" s="31"/>
+      <c r="H222" s="32"/>
+      <c r="I222" s="45"/>
+      <c r="J222" s="45"/>
+      <c r="K222" s="45"/>
     </row>
     <row r="223" spans="1:11">
-      <c r="A223" s="30"/>
-      <c r="B223" s="31"/>
-      <c r="G223" s="32"/>
-      <c r="H223" s="33"/>
-      <c r="I223" s="46"/>
-      <c r="J223" s="53"/>
-      <c r="K223" s="46"/>
+      <c r="A223" s="29"/>
+      <c r="B223" s="30"/>
+      <c r="G223" s="31"/>
+      <c r="H223" s="32"/>
+      <c r="I223" s="45"/>
+      <c r="J223" s="45"/>
+      <c r="K223" s="45"/>
     </row>
     <row r="224" spans="1:11">
-      <c r="A224" s="30"/>
-      <c r="B224" s="31"/>
-      <c r="G224" s="32"/>
-      <c r="H224" s="33"/>
-      <c r="I224" s="46"/>
-      <c r="J224" s="53"/>
-      <c r="K224" s="46"/>
+      <c r="A224" s="29"/>
+      <c r="B224" s="30"/>
+      <c r="G224" s="31"/>
+      <c r="H224" s="32"/>
+      <c r="I224" s="45"/>
+      <c r="J224" s="45"/>
+      <c r="K224" s="45"/>
     </row>
     <row r="225" spans="1:15">
-      <c r="A225" s="30"/>
-      <c r="B225" s="31"/>
-      <c r="G225" s="32"/>
-      <c r="H225" s="33"/>
-      <c r="I225" s="46"/>
-      <c r="J225" s="53"/>
-      <c r="K225" s="46"/>
+      <c r="A225" s="29"/>
+      <c r="B225" s="30"/>
+      <c r="G225" s="31"/>
+      <c r="H225" s="32"/>
+      <c r="I225" s="45"/>
+      <c r="J225" s="45"/>
+      <c r="K225" s="45"/>
     </row>
     <row r="226" spans="1:15">
       <c r="A226" s="1"/>
-      <c r="B226" s="31"/>
-      <c r="G226" s="34"/>
-      <c r="H226" s="35"/>
-      <c r="I226" s="22"/>
-      <c r="J226" s="50"/>
-      <c r="K226" s="22"/>
+      <c r="B226" s="30"/>
+      <c r="G226" s="33"/>
+      <c r="H226" s="34"/>
+      <c r="I226" s="21"/>
+      <c r="J226" s="21"/>
+      <c r="K226" s="21"/>
       <c r="L226" s="16"/>
       <c r="O226" s="14"/>
     </row>
     <row r="227" spans="1:15">
       <c r="B227" s="1"/>
-      <c r="G227" s="34"/>
-      <c r="H227" s="35"/>
-      <c r="I227" s="22"/>
-      <c r="J227" s="50"/>
-      <c r="K227" s="22"/>
-      <c r="L227" s="22"/>
+      <c r="G227" s="33"/>
+      <c r="H227" s="34"/>
+      <c r="I227" s="21"/>
+      <c r="J227" s="21"/>
+      <c r="K227" s="21"/>
+      <c r="L227" s="21"/>
       <c r="O227" s="14"/>
     </row>
     <row r="228" spans="1:15">
       <c r="B228" s="1"/>
-      <c r="G228" s="34"/>
-      <c r="H228" s="36"/>
-      <c r="I228" s="47"/>
-      <c r="J228" s="54"/>
-      <c r="K228" s="47"/>
-      <c r="L228" s="22"/>
+      <c r="G228" s="33"/>
+      <c r="H228" s="35"/>
+      <c r="I228" s="46"/>
+      <c r="J228" s="46"/>
+      <c r="K228" s="46"/>
+      <c r="L228" s="21"/>
       <c r="O228" s="14"/>
     </row>
     <row r="229" spans="1:15">
       <c r="B229" s="1"/>
       <c r="G229" s="11"/>
-      <c r="H229" s="37"/>
-      <c r="I229" s="46"/>
-      <c r="J229" s="53"/>
-      <c r="K229" s="46"/>
-      <c r="L229" s="38"/>
-      <c r="O229" s="37"/>
+      <c r="H229" s="36"/>
+      <c r="I229" s="45"/>
+      <c r="J229" s="45"/>
+      <c r="K229" s="45"/>
+      <c r="L229" s="37"/>
+      <c r="O229" s="36"/>
     </row>
     <row r="230" spans="1:15">
       <c r="B230" s="1"/>
       <c r="G230" s="11"/>
-      <c r="H230" s="37"/>
-      <c r="I230" s="46"/>
-      <c r="J230" s="53"/>
-      <c r="K230" s="46"/>
-      <c r="L230" s="38"/>
-      <c r="O230" s="37"/>
+      <c r="H230" s="36"/>
+      <c r="I230" s="45"/>
+      <c r="J230" s="45"/>
+      <c r="K230" s="45"/>
+      <c r="L230" s="37"/>
+      <c r="O230" s="36"/>
     </row>
     <row r="231" spans="1:15">
       <c r="B231" s="1"/>
       <c r="G231" s="11"/>
-      <c r="H231" s="37"/>
-      <c r="I231" s="46"/>
-      <c r="J231" s="53"/>
-      <c r="K231" s="46"/>
-      <c r="L231" s="39"/>
-      <c r="O231" s="37"/>
+      <c r="H231" s="36"/>
+      <c r="I231" s="45"/>
+      <c r="J231" s="45"/>
+      <c r="K231" s="45"/>
+      <c r="L231" s="38"/>
+      <c r="O231" s="36"/>
     </row>
     <row r="232" spans="1:15">
       <c r="B232" s="1"/>
       <c r="G232" s="11"/>
-      <c r="H232" s="37"/>
-      <c r="I232" s="46"/>
-      <c r="J232" s="53"/>
-      <c r="K232" s="46"/>
-      <c r="L232" s="39"/>
-      <c r="O232" s="37"/>
+      <c r="H232" s="36"/>
+      <c r="I232" s="45"/>
+      <c r="J232" s="45"/>
+      <c r="K232" s="45"/>
+      <c r="L232" s="38"/>
+      <c r="O232" s="36"/>
     </row>
     <row r="233" spans="1:15">
       <c r="B233" s="1"/>
       <c r="G233" s="11"/>
-      <c r="H233" s="37"/>
-      <c r="I233" s="46"/>
-      <c r="J233" s="53"/>
-      <c r="K233" s="46"/>
-      <c r="L233" s="39"/>
-      <c r="O233" s="37"/>
+      <c r="H233" s="36"/>
+      <c r="I233" s="45"/>
+      <c r="J233" s="45"/>
+      <c r="K233" s="45"/>
+      <c r="L233" s="38"/>
+      <c r="O233" s="36"/>
     </row>
     <row r="234" spans="1:15">
       <c r="B234" s="1"/>
       <c r="G234" s="11"/>
-      <c r="H234" s="37"/>
-      <c r="I234" s="46"/>
-      <c r="J234" s="53"/>
-      <c r="K234" s="46"/>
-      <c r="L234" s="39"/>
-      <c r="O234" s="37"/>
+      <c r="H234" s="36"/>
+      <c r="I234" s="45"/>
+      <c r="J234" s="45"/>
+      <c r="K234" s="45"/>
+      <c r="L234" s="38"/>
+      <c r="O234" s="36"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
